--- a/export_par_receipt.xlsx
+++ b/export_par_receipt.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -32,7 +32,7 @@
     <t xml:space="preserve">PAR No.: </t>
   </si>
   <si>
-    <t>COA-OP-2012-001</t>
+    <t>ORD-MV-2013-003</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -56,10 +56,10 @@
     <t>unit</t>
   </si>
   <si>
-    <t>Carrier, 1.5 HP, window type</t>
-  </si>
-  <si>
-    <t>2012-04-01</t>
+    <t>2.5E DSI MT, Engine no. 2KD-U376970, Chassis no. KUN40-5098941, Plate no. SLC-963 (color: Thermalyte).</t>
+  </si>
+  <si>
+    <t>2013-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">Received by: </t>
@@ -181,6 +181,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -189,11 +194,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="27">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -243,354 +243,45 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -996,221 +687,221 @@
       <c r="A11" s="12">
         <v>0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="17">
-        <v>27000</v>
+      <c r="F11" s="14">
+        <v>993000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="34"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="52"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="58"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="70"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="76"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="82"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="88"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="90"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="94"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="100"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="102"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="106"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="109"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="122"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="114" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="123"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:7" customHeight="1" ht="20">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="111"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="124"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:7" customHeight="1" ht="33">
       <c r="A30" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="115"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="125"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="112"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="126"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:7" customHeight="1" ht="19">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="117"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="127"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="113"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="128"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:7" customHeight="1" ht="19">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="121"/>
-      <c r="F34" s="129"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10"/>

--- a/export_par_receipt.xlsx
+++ b/export_par_receipt.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">PAR No.: </t>
   </si>
   <si>
-    <t>ORD-MV-2013-003</t>
+    <t>AS-GSD-NC-15-441</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -56,10 +56,10 @@
     <t>unit</t>
   </si>
   <si>
-    <t>2.5E DSI MT, Engine no. 2KD-U376970, Chassis no. KUN40-5098941, Plate no. SLC-963 (color: Thermalyte).</t>
-  </si>
-  <si>
-    <t>2013-10-01</t>
+    <t>Lenovo G40-80, Model Name: 80 E4, CPU: Intel i3-5005U 2.0 G, RAM: 4G, HDD; 500G, Display: 14' HD LED, OS: Windows 8.1 Pro Serial # PF0DE1Z0</t>
+  </si>
+  <si>
+    <t>2016/03/29</t>
   </si>
   <si>
     <t xml:space="preserve">Received by: </t>
@@ -685,7 +685,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="14">
-        <v>993000</v>
+        <v>18954.24</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/export_par_receipt.xlsx
+++ b/export_par_receipt.xlsx
@@ -56,10 +56,10 @@
     <t>unit</t>
   </si>
   <si>
-    <t>Lenovo G40-80, Model Name: 80 E4, CPU: Intel i3-5005U 2.0 G, RAM: 4G, HDD; 500G, Display: 14' HD LED, OS: Windows 8.1 Pro Serial # PF0DE1Z0</t>
-  </si>
-  <si>
-    <t>2016/03/29</t>
+    <t>Lenovo G40-80, Model Name: 80 E4, CPU: Intel i3-5005U 2.0 G, RAM: 4G, HDD; 500G, Display: 14 HD LED, OS: Windows 8.1 Pro Serial # PF0DE1Z0</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
   </si>
   <si>
     <t xml:space="preserve">Received by: </t>
